--- a/중간발표 문서/테스트케이스_4조.xlsx
+++ b/중간발표 문서/테스트케이스_4조.xlsx
@@ -5,16 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ce4f8eed8444bc6/바탕 화면/Study/프로젝트/프로젝트1 발표자료/최종/이전작성/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ce4f8eed8444bc6/문서/Algorhythnm2/중간발표 문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="474" documentId="13_ncr:1_{C3E2DDD4-5B16-4495-8A7E-A9700A3B35DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0132AA72-BE0A-4ACE-B5A2-DC4437338484}"/>
+  <xr:revisionPtr revIDLastSave="493" documentId="13_ncr:1_{C3E2DDD4-5B16-4495-8A7E-A9700A3B35DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADDC25DE-2EC7-42FE-AC79-C3CB6B60BC9B}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-830" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-830" windowWidth="25820" windowHeight="15500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개정이력" sheetId="2" r:id="rId1"/>
-    <sheet name="테스트케이스" sheetId="1" r:id="rId2"/>
+    <sheet name="테스트케이스_1차" sheetId="1" r:id="rId2"/>
+    <sheet name="테스트케이스_2차" sheetId="3" r:id="rId3"/>
+    <sheet name="테스트케이스_3차" sheetId="4" r:id="rId4"/>
+    <sheet name="테스트케이스_4차" sheetId="5" r:id="rId5"/>
+    <sheet name="테스트케이스_5차" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="260">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1029,6 +1033,23 @@
   <si>
     <t>미로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.10.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- 2페이지 이동시 오류 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.10.07</t>
+  </si>
+  <si>
+    <t>24.10.08</t>
+  </si>
+  <si>
+    <t>24.10.10</t>
   </si>
 </sst>
 </file>
@@ -1443,7 +1464,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1591,41 +1612,38 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1636,29 +1654,35 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1675,10 +1699,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2138,8 +2158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2159,46 +2179,46 @@
   <sheetData>
     <row r="2" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="66" t="s">
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="70" t="s">
+      <c r="I3" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="66" t="s">
+      <c r="K3" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="70" t="s">
+      <c r="L3" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="66" t="s">
+      <c r="M3" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="68" t="s">
+      <c r="N3" s="58" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="65"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="18" t="s">
         <v>1</v>
       </c>
@@ -2208,25 +2228,25 @@
       <c r="G4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="69"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="59"/>
     </row>
     <row r="5" spans="2:14" s="24" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="53" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="53" t="s">
         <v>79</v>
       </c>
       <c r="F5" s="21" t="s">
@@ -2239,16 +2259,16 @@
         <v>167</v>
       </c>
       <c r="I5" s="22"/>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="L5" s="56" t="s">
+      <c r="L5" s="69" t="s">
         <v>245</v>
       </c>
-      <c r="M5" s="52" t="s">
+      <c r="M5" s="53" t="s">
         <v>253</v>
       </c>
       <c r="N5" s="23"/>
@@ -2257,7 +2277,7 @@
       <c r="B6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="53"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="21" t="s">
         <v>37</v>
       </c>
@@ -2272,8 +2292,8 @@
         <v>168</v>
       </c>
       <c r="I6" s="22"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="51"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="68"/>
       <c r="L6" s="54"/>
       <c r="M6" s="54"/>
       <c r="N6" s="23"/>
@@ -2282,7 +2302,7 @@
       <c r="B7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="53"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="25" t="s">
         <v>38</v>
       </c>
@@ -2317,7 +2337,7 @@
       <c r="B8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="53"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="25" t="s">
         <v>40</v>
       </c>
@@ -2424,7 +2444,7 @@
       <c r="B11" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="53" t="s">
         <v>73</v>
       </c>
       <c r="D11" s="25" t="s">
@@ -2433,7 +2453,7 @@
       <c r="E11" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="53" t="s">
         <v>93</v>
       </c>
       <c r="G11" s="21" t="s">
@@ -2443,16 +2463,16 @@
         <v>173</v>
       </c>
       <c r="I11" s="22"/>
-      <c r="J11" s="57" t="s">
+      <c r="J11" s="66" t="s">
         <v>219</v>
       </c>
-      <c r="K11" s="49" t="s">
+      <c r="K11" s="70" t="s">
         <v>229</v>
       </c>
-      <c r="L11" s="52" t="s">
+      <c r="L11" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="M11" s="52" t="s">
+      <c r="M11" s="53" t="s">
         <v>253</v>
       </c>
       <c r="N11" s="23"/>
@@ -2461,14 +2481,14 @@
       <c r="B12" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="26" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="53"/>
+      <c r="F12" s="55"/>
       <c r="G12" s="20" t="s">
         <v>95</v>
       </c>
@@ -2476,24 +2496,24 @@
         <v>174</v>
       </c>
       <c r="I12" s="27"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
       <c r="N12" s="28"/>
     </row>
     <row r="13" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B13" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="53"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="26" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="53"/>
+      <c r="F13" s="55"/>
       <c r="G13" s="21" t="s">
         <v>94</v>
       </c>
@@ -2501,24 +2521,24 @@
         <v>173</v>
       </c>
       <c r="I13" s="27"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
       <c r="N13" s="28"/>
     </row>
     <row r="14" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B14" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="53"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="26" t="s">
         <v>45</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="53"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="20" t="s">
         <v>95</v>
       </c>
@@ -2526,24 +2546,24 @@
         <v>174</v>
       </c>
       <c r="I14" s="27"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
       <c r="N14" s="28"/>
     </row>
     <row r="15" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B15" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="53"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="26" t="s">
         <v>46</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="53"/>
+      <c r="F15" s="55"/>
       <c r="G15" s="21" t="s">
         <v>94</v>
       </c>
@@ -2551,10 +2571,10 @@
         <v>173</v>
       </c>
       <c r="I15" s="27"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
       <c r="N15" s="28"/>
     </row>
     <row r="16" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
@@ -2576,8 +2596,8 @@
         <v>174</v>
       </c>
       <c r="I16" s="27"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="51"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="68"/>
       <c r="L16" s="54"/>
       <c r="M16" s="54"/>
       <c r="N16" s="28"/>
@@ -2586,13 +2606,13 @@
       <c r="B17" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="53" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="53" t="s">
         <v>79</v>
       </c>
       <c r="F17" s="20" t="s">
@@ -2617,18 +2637,20 @@
       <c r="M17" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="N17" s="28"/>
+      <c r="N17" s="72" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="18" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B18" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="53"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="52" t="s">
+      <c r="E18" s="55"/>
+      <c r="F18" s="53" t="s">
         <v>96</v>
       </c>
       <c r="G18" s="20" t="s">
@@ -2640,16 +2662,16 @@
       <c r="I18" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="60" t="s">
+      <c r="J18" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="K18" s="55" t="s">
+      <c r="K18" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="L18" s="56" t="s">
+      <c r="L18" s="69" t="s">
         <v>245</v>
       </c>
-      <c r="M18" s="52" t="s">
+      <c r="M18" s="53" t="s">
         <v>253</v>
       </c>
       <c r="N18" s="28"/>
@@ -2658,11 +2680,11 @@
       <c r="B19" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="53"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="53"/>
+      <c r="E19" s="55"/>
       <c r="F19" s="54"/>
       <c r="G19" s="20" t="s">
         <v>11</v>
@@ -2673,22 +2695,22 @@
       <c r="I19" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J19" s="58"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
       <c r="N19" s="28"/>
     </row>
     <row r="20" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B20" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="52" t="s">
+      <c r="E20" s="55"/>
+      <c r="F20" s="53" t="s">
         <v>98</v>
       </c>
       <c r="G20" s="20" t="s">
@@ -2700,10 +2722,10 @@
       <c r="I20" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J20" s="58"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
       <c r="N20" s="28"/>
     </row>
     <row r="21" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
@@ -2725,8 +2747,8 @@
       <c r="I21" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="59"/>
-      <c r="K21" s="51"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="68"/>
       <c r="L21" s="54"/>
       <c r="M21" s="54"/>
       <c r="N21" s="28"/>
@@ -2735,16 +2757,16 @@
       <c r="B22" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="53" t="s">
         <v>75</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="52" t="s">
+      <c r="E22" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="53" t="s">
         <v>99</v>
       </c>
       <c r="G22" s="20" t="s">
@@ -2753,19 +2775,19 @@
       <c r="H22" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="I22" s="52" t="s">
+      <c r="I22" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="J22" s="60" t="s">
+      <c r="J22" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="K22" s="55" t="s">
+      <c r="K22" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="L22" s="56" t="s">
+      <c r="L22" s="69" t="s">
         <v>248</v>
       </c>
-      <c r="M22" s="52" t="s">
+      <c r="M22" s="53" t="s">
         <v>253</v>
       </c>
       <c r="N22" s="28"/>
@@ -2774,138 +2796,138 @@
       <c r="B23" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="53"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
       <c r="G23" s="20" t="s">
         <v>100</v>
       </c>
       <c r="H23" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="I23" s="53"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
       <c r="N23" s="28"/>
     </row>
     <row r="24" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B24" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="53"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
       <c r="G24" s="20" t="s">
         <v>101</v>
       </c>
       <c r="H24" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="I24" s="53"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
       <c r="N24" s="28"/>
     </row>
     <row r="25" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B25" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="53"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="20" t="s">
         <v>102</v>
       </c>
       <c r="H25" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="I25" s="53"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
       <c r="N25" s="28"/>
     </row>
     <row r="26" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B26" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="53"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="20" t="s">
         <v>103</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="I26" s="53"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
       <c r="N26" s="28"/>
     </row>
     <row r="27" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B27" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C27" s="53"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
       <c r="G27" s="20" t="s">
         <v>104</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="I27" s="53"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
       <c r="N27" s="28"/>
     </row>
     <row r="28" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B28" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C28" s="53"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="20" t="s">
         <v>105</v>
       </c>
       <c r="H28" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="I28" s="53"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
       <c r="N28" s="28"/>
     </row>
     <row r="29" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
@@ -2925,8 +2947,8 @@
         <v>188</v>
       </c>
       <c r="I29" s="54"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="51"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="68"/>
       <c r="L29" s="54"/>
       <c r="M29" s="54"/>
       <c r="N29" s="28"/>
@@ -2935,16 +2957,16 @@
       <c r="B30" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="53" t="s">
         <v>76</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="52" t="s">
+      <c r="E30" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="52" t="s">
+      <c r="F30" s="53" t="s">
         <v>99</v>
       </c>
       <c r="G30" s="20" t="s">
@@ -2954,16 +2976,16 @@
         <v>189</v>
       </c>
       <c r="I30" s="27"/>
-      <c r="J30" s="57" t="s">
+      <c r="J30" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="K30" s="49" t="s">
+      <c r="K30" s="70" t="s">
         <v>234</v>
       </c>
-      <c r="L30" s="52" t="s">
+      <c r="L30" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="M30" s="52" t="s">
+      <c r="M30" s="53" t="s">
         <v>252</v>
       </c>
       <c r="N30" s="28"/>
@@ -2972,11 +2994,11 @@
       <c r="B31" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="C31" s="53"/>
+      <c r="C31" s="55"/>
       <c r="D31" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="53"/>
+      <c r="E31" s="55"/>
       <c r="F31" s="54"/>
       <c r="G31" s="20" t="s">
         <v>7</v>
@@ -2985,8 +3007,8 @@
         <v>190</v>
       </c>
       <c r="I31" s="27"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="51"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="68"/>
       <c r="L31" s="54"/>
       <c r="M31" s="54"/>
       <c r="N31" s="28"/>
@@ -2995,7 +3017,7 @@
       <c r="B32" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="C32" s="53"/>
+      <c r="C32" s="55"/>
       <c r="D32" s="26" t="s">
         <v>62</v>
       </c>
@@ -3028,16 +3050,16 @@
       <c r="B33" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="53" t="s">
         <v>77</v>
       </c>
       <c r="D33" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="52" t="s">
+      <c r="E33" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="F33" s="53" t="s">
         <v>109</v>
       </c>
       <c r="G33" s="20" t="s">
@@ -3046,7 +3068,7 @@
       <c r="H33" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="I33" s="52" t="s">
+      <c r="I33" s="53" t="s">
         <v>5</v>
       </c>
       <c r="J33" s="44" t="s">
@@ -3067,11 +3089,11 @@
       <c r="B34" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C34" s="53"/>
+      <c r="C34" s="55"/>
       <c r="D34" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="53"/>
+      <c r="E34" s="55"/>
       <c r="F34" s="54"/>
       <c r="G34" s="20" t="s">
         <v>111</v>
@@ -3079,7 +3101,7 @@
       <c r="H34" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="I34" s="53"/>
+      <c r="I34" s="55"/>
       <c r="J34" s="44" t="s">
         <v>216</v>
       </c>
@@ -3098,12 +3120,12 @@
       <c r="B35" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C35" s="53"/>
+      <c r="C35" s="55"/>
       <c r="D35" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="E35" s="53"/>
-      <c r="F35" s="52" t="s">
+      <c r="E35" s="55"/>
+      <c r="F35" s="53" t="s">
         <v>112</v>
       </c>
       <c r="G35" s="20" t="s">
@@ -3112,17 +3134,17 @@
       <c r="H35" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="I35" s="53"/>
-      <c r="J35" s="57" t="s">
+      <c r="I35" s="55"/>
+      <c r="J35" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="K35" s="49" t="s">
+      <c r="K35" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="L35" s="52" t="s">
+      <c r="L35" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="M35" s="52" t="s">
+      <c r="M35" s="53" t="s">
         <v>253</v>
       </c>
       <c r="N35" s="28"/>
@@ -3131,138 +3153,138 @@
       <c r="B36" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C36" s="53"/>
+      <c r="C36" s="55"/>
       <c r="D36" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
       <c r="G36" s="20" t="s">
         <v>100</v>
       </c>
       <c r="H36" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="I36" s="53"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
       <c r="N36" s="28"/>
     </row>
     <row r="37" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B37" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
       <c r="G37" s="20" t="s">
         <v>101</v>
       </c>
       <c r="H37" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="I37" s="53"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
       <c r="N37" s="28"/>
     </row>
     <row r="38" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B38" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C38" s="53"/>
+      <c r="C38" s="55"/>
       <c r="D38" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
       <c r="G38" s="20" t="s">
         <v>102</v>
       </c>
       <c r="H38" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="I38" s="53"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
       <c r="N38" s="28"/>
     </row>
     <row r="39" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B39" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="C39" s="53"/>
+      <c r="C39" s="55"/>
       <c r="D39" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
       <c r="G39" s="20" t="s">
         <v>103</v>
       </c>
       <c r="H39" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="I39" s="53"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
       <c r="N39" s="28"/>
     </row>
     <row r="40" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B40" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="53"/>
+      <c r="C40" s="55"/>
       <c r="D40" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
       <c r="G40" s="20" t="s">
         <v>104</v>
       </c>
       <c r="H40" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="I40" s="53"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
       <c r="N40" s="28"/>
     </row>
     <row r="41" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B41" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C41" s="53"/>
+      <c r="C41" s="55"/>
       <c r="D41" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
       <c r="G41" s="20" t="s">
         <v>105</v>
       </c>
       <c r="H41" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="I41" s="53"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
       <c r="N41" s="28"/>
     </row>
     <row r="42" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
@@ -3282,8 +3304,8 @@
         <v>201</v>
       </c>
       <c r="I42" s="54"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="51"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="68"/>
       <c r="L42" s="54"/>
       <c r="M42" s="54"/>
       <c r="N42" s="28"/>
@@ -3292,16 +3314,16 @@
       <c r="B43" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="C43" s="52" t="s">
+      <c r="C43" s="53" t="s">
         <v>78</v>
       </c>
       <c r="D43" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="E43" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="F43" s="52" t="s">
+      <c r="F43" s="53" t="s">
         <v>121</v>
       </c>
       <c r="G43" s="20" t="s">
@@ -3329,12 +3351,12 @@
       <c r="B44" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="C44" s="53"/>
+      <c r="C44" s="55"/>
       <c r="D44" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
       <c r="G44" s="20" t="s">
         <v>123</v>
       </c>
@@ -3360,12 +3382,12 @@
       <c r="B45" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="C45" s="53"/>
+      <c r="C45" s="55"/>
       <c r="D45" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
       <c r="G45" s="20" t="s">
         <v>124</v>
       </c>
@@ -3391,11 +3413,11 @@
       <c r="B46" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="C46" s="53"/>
+      <c r="C46" s="55"/>
       <c r="D46" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="53"/>
+      <c r="E46" s="55"/>
       <c r="F46" s="54"/>
       <c r="G46" s="20" t="s">
         <v>88</v>
@@ -3422,12 +3444,12 @@
       <c r="B47" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="C47" s="53"/>
+      <c r="C47" s="55"/>
       <c r="D47" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E47" s="53"/>
-      <c r="F47" s="52" t="s">
+      <c r="E47" s="55"/>
+      <c r="F47" s="53" t="s">
         <v>122</v>
       </c>
       <c r="G47" s="20" t="s">
@@ -3455,12 +3477,12 @@
       <c r="B48" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="C48" s="53"/>
+      <c r="C48" s="55"/>
       <c r="D48" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
       <c r="G48" s="20" t="s">
         <v>126</v>
       </c>
@@ -3529,65 +3551,14 @@
       <c r="N50" s="33"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="E52" s="71" t="s">
+      <c r="E52" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I22:I29"/>
-    <mergeCell ref="I33:I42"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="C22:C29"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="C43:C49"/>
-    <mergeCell ref="C33:C42"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E33:E42"/>
-    <mergeCell ref="E43:E49"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F42"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="J22:J29"/>
-    <mergeCell ref="J35:J42"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J11:J16"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="K11:K16"/>
-    <mergeCell ref="L11:L16"/>
-    <mergeCell ref="M11:M16"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="L18:L21"/>
-    <mergeCell ref="M18:M21"/>
     <mergeCell ref="K35:K42"/>
     <mergeCell ref="L35:L42"/>
     <mergeCell ref="M35:M42"/>
@@ -3597,9 +3568,5936 @@
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="L30:L31"/>
     <mergeCell ref="M30:M31"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="K11:K16"/>
+    <mergeCell ref="L11:L16"/>
+    <mergeCell ref="M11:M16"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="C43:C49"/>
+    <mergeCell ref="C33:C42"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E33:E42"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F29"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I22:I29"/>
+    <mergeCell ref="I33:I42"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F42"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="J22:J29"/>
+    <mergeCell ref="J35:J42"/>
+    <mergeCell ref="J30:J31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE061415-89D0-4ED3-A9FF-735AFFF1DD80}">
+  <dimension ref="B2:N52"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22:M29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="4" width="8.796875" style="17"/>
+    <col min="5" max="5" width="17.8984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.8984375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="33.69921875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" style="17" customWidth="1"/>
+    <col min="10" max="10" width="38" style="41" customWidth="1"/>
+    <col min="11" max="11" width="54.59765625" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" style="17" customWidth="1"/>
+    <col min="13" max="13" width="10" style="17" customWidth="1"/>
+    <col min="14" max="14" width="38" style="17" customWidth="1"/>
+    <col min="15" max="16384" width="8.796875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="57"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="59"/>
+    </row>
+    <row r="5" spans="2:14" s="24" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="K5" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="L5" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="M5" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="N5" s="23"/>
+    </row>
+    <row r="6" spans="2:14" s="24" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="54"/>
+      <c r="F6" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="23"/>
+    </row>
+    <row r="7" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="N7" s="23"/>
+    </row>
+    <row r="8" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="55"/>
+      <c r="D8" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="N8" s="23"/>
+    </row>
+    <row r="9" spans="2:14" s="24" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="L9" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="N9" s="23"/>
+    </row>
+    <row r="10" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B10" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="N10" s="23"/>
+    </row>
+    <row r="11" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B11" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="K11" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="L11" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="M11" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="N11" s="23"/>
+    </row>
+    <row r="12" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B12" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="55"/>
+      <c r="D12" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="I12" s="27"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="28"/>
+    </row>
+    <row r="13" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B13" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="55"/>
+      <c r="D13" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="I13" s="27"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="28"/>
+    </row>
+    <row r="14" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B14" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="I14" s="27"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="28"/>
+    </row>
+    <row r="15" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B15" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="28"/>
+    </row>
+    <row r="16" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B16" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="54"/>
+      <c r="D16" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="54"/>
+      <c r="G16" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="I16" s="27"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="28"/>
+    </row>
+    <row r="17" spans="2:14" s="24" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B17" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="I17" s="27"/>
+      <c r="J17" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="L17" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="N17" s="28"/>
+    </row>
+    <row r="18" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B18" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="55"/>
+      <c r="D18" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="55"/>
+      <c r="F18" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="K18" s="67" t="s">
+        <v>232</v>
+      </c>
+      <c r="L18" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="M18" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="N18" s="28"/>
+    </row>
+    <row r="19" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B19" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="55"/>
+      <c r="D19" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="55"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="64"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="28"/>
+    </row>
+    <row r="20" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B20" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="55"/>
+      <c r="F20" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="64"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="28"/>
+    </row>
+    <row r="21" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B21" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="54"/>
+      <c r="D21" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="65"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="28"/>
+    </row>
+    <row r="22" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B22" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="I22" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="J22" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="L22" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="M22" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="N22" s="28"/>
+    </row>
+    <row r="23" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B23" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="55"/>
+      <c r="D23" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="I23" s="55"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="28"/>
+    </row>
+    <row r="24" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B24" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="55"/>
+      <c r="D24" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="I24" s="55"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="28"/>
+    </row>
+    <row r="25" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B25" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="55"/>
+      <c r="D25" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="I25" s="55"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="28"/>
+    </row>
+    <row r="26" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B26" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="55"/>
+      <c r="D26" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="I26" s="55"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="28"/>
+    </row>
+    <row r="27" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B27" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="55"/>
+      <c r="D27" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="I27" s="55"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="28"/>
+    </row>
+    <row r="28" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B28" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="55"/>
+      <c r="D28" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="I28" s="55"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="28"/>
+    </row>
+    <row r="29" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B29" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="54"/>
+      <c r="D29" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="I29" s="54"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="28"/>
+    </row>
+    <row r="30" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B30" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="I30" s="27"/>
+      <c r="J30" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="K30" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="L30" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="M30" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="N30" s="28"/>
+    </row>
+    <row r="31" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B31" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="55"/>
+      <c r="D31" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="55"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="I31" s="27"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="28"/>
+    </row>
+    <row r="32" spans="2:14" s="24" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B32" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="55"/>
+      <c r="D32" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="54"/>
+      <c r="F32" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I32" s="27"/>
+      <c r="J32" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="K32" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L32" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M32" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="N32" s="28"/>
+    </row>
+    <row r="33" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B33" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="I33" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="K33" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="L33" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M33" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="N33" s="28"/>
+    </row>
+    <row r="34" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B34" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="55"/>
+      <c r="D34" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="55"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="I34" s="55"/>
+      <c r="J34" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="K34" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M34" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="N34" s="28"/>
+    </row>
+    <row r="35" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B35" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="55"/>
+      <c r="D35" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="55"/>
+      <c r="F35" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="I35" s="55"/>
+      <c r="J35" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="K35" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="L35" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="M35" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="N35" s="28"/>
+    </row>
+    <row r="36" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B36" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="55"/>
+      <c r="D36" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I36" s="55"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="28"/>
+    </row>
+    <row r="37" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B37" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="55"/>
+      <c r="D37" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="I37" s="55"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="28"/>
+    </row>
+    <row r="38" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B38" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="55"/>
+      <c r="D38" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="I38" s="55"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="28"/>
+    </row>
+    <row r="39" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B39" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="55"/>
+      <c r="D39" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="I39" s="55"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="28"/>
+    </row>
+    <row r="40" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B40" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="55"/>
+      <c r="D40" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="I40" s="55"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="28"/>
+    </row>
+    <row r="41" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B41" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="55"/>
+      <c r="D41" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="I41" s="55"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="28"/>
+    </row>
+    <row r="42" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B42" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="54"/>
+      <c r="D42" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="I42" s="54"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="28"/>
+    </row>
+    <row r="43" spans="2:14" s="24" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B43" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="I43" s="27"/>
+      <c r="J43" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="K43" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="L43" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M43" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="N43" s="28"/>
+    </row>
+    <row r="44" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B44" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="55"/>
+      <c r="D44" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="I44" s="21"/>
+      <c r="J44" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="K44" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="L44" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M44" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="N44" s="28"/>
+    </row>
+    <row r="45" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B45" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="55"/>
+      <c r="D45" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="I45" s="27"/>
+      <c r="J45" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="K45" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="L45" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M45" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="N45" s="28"/>
+    </row>
+    <row r="46" spans="2:14" s="24" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B46" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="55"/>
+      <c r="D46" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="55"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="I46" s="27"/>
+      <c r="J46" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="K46" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="L46" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M46" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="N46" s="28"/>
+    </row>
+    <row r="47" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B47" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="55"/>
+      <c r="D47" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="55"/>
+      <c r="F47" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="I47" s="27"/>
+      <c r="J47" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="K47" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="L47" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M47" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="N47" s="28"/>
+    </row>
+    <row r="48" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B48" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="55"/>
+      <c r="D48" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="I48" s="27"/>
+      <c r="J48" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="K48" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="L48" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M48" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="N48" s="28"/>
+    </row>
+    <row r="49" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B49" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="54"/>
+      <c r="D49" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="I49" s="27"/>
+      <c r="J49" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="K49" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="L49" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M49" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="N49" s="28"/>
+    </row>
+    <row r="50" spans="2:14" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="29"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="33"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="E52" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="60">
+    <mergeCell ref="C43:C49"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="C33:C42"/>
+    <mergeCell ref="E33:E42"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="I33:I42"/>
+    <mergeCell ref="F35:F42"/>
+    <mergeCell ref="J35:J42"/>
+    <mergeCell ref="K35:K42"/>
+    <mergeCell ref="L35:L42"/>
+    <mergeCell ref="M35:M42"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F22:F29"/>
+    <mergeCell ref="I22:I29"/>
+    <mergeCell ref="J22:J29"/>
+    <mergeCell ref="K22:K29"/>
+    <mergeCell ref="L22:L29"/>
+    <mergeCell ref="M22:M29"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="K11:K16"/>
+    <mergeCell ref="L11:L16"/>
+    <mergeCell ref="M11:M16"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0CC907-EC01-4F9D-8FCF-70B4D36B0CC2}">
+  <dimension ref="B2:N52"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30:K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="4" width="8.796875" style="17"/>
+    <col min="5" max="5" width="17.8984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.8984375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="33.69921875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" style="17" customWidth="1"/>
+    <col min="10" max="10" width="38" style="41" customWidth="1"/>
+    <col min="11" max="11" width="54.59765625" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" style="17" customWidth="1"/>
+    <col min="13" max="13" width="10" style="17" customWidth="1"/>
+    <col min="14" max="14" width="38" style="17" customWidth="1"/>
+    <col min="15" max="16384" width="8.796875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="57"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="59"/>
+    </row>
+    <row r="5" spans="2:14" s="24" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="K5" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="L5" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="M5" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="N5" s="23"/>
+    </row>
+    <row r="6" spans="2:14" s="24" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="54"/>
+      <c r="F6" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="23"/>
+    </row>
+    <row r="7" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="N7" s="23"/>
+    </row>
+    <row r="8" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="55"/>
+      <c r="D8" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="N8" s="23"/>
+    </row>
+    <row r="9" spans="2:14" s="24" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="L9" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="N9" s="23"/>
+    </row>
+    <row r="10" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B10" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="N10" s="23"/>
+    </row>
+    <row r="11" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B11" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="K11" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="L11" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="M11" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="N11" s="23"/>
+    </row>
+    <row r="12" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B12" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="55"/>
+      <c r="D12" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="I12" s="27"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="28"/>
+    </row>
+    <row r="13" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B13" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="55"/>
+      <c r="D13" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="I13" s="27"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="28"/>
+    </row>
+    <row r="14" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B14" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="I14" s="27"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="28"/>
+    </row>
+    <row r="15" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B15" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="28"/>
+    </row>
+    <row r="16" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B16" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="54"/>
+      <c r="D16" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="54"/>
+      <c r="G16" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="I16" s="27"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="28"/>
+    </row>
+    <row r="17" spans="2:14" s="24" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B17" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="I17" s="27"/>
+      <c r="J17" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="L17" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="N17" s="28"/>
+    </row>
+    <row r="18" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B18" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="55"/>
+      <c r="D18" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="55"/>
+      <c r="F18" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="K18" s="67" t="s">
+        <v>232</v>
+      </c>
+      <c r="L18" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="M18" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="N18" s="28"/>
+    </row>
+    <row r="19" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B19" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="55"/>
+      <c r="D19" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="55"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="64"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="28"/>
+    </row>
+    <row r="20" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B20" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="55"/>
+      <c r="F20" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="64"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="28"/>
+    </row>
+    <row r="21" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B21" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="54"/>
+      <c r="D21" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="65"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="28"/>
+    </row>
+    <row r="22" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B22" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="I22" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="J22" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="L22" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="M22" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="N22" s="28"/>
+    </row>
+    <row r="23" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B23" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="55"/>
+      <c r="D23" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="I23" s="55"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="28"/>
+    </row>
+    <row r="24" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B24" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="55"/>
+      <c r="D24" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="I24" s="55"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="28"/>
+    </row>
+    <row r="25" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B25" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="55"/>
+      <c r="D25" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="I25" s="55"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="28"/>
+    </row>
+    <row r="26" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B26" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="55"/>
+      <c r="D26" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="I26" s="55"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="28"/>
+    </row>
+    <row r="27" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B27" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="55"/>
+      <c r="D27" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="I27" s="55"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="28"/>
+    </row>
+    <row r="28" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B28" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="55"/>
+      <c r="D28" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="I28" s="55"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="28"/>
+    </row>
+    <row r="29" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B29" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="54"/>
+      <c r="D29" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="I29" s="54"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="28"/>
+    </row>
+    <row r="30" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B30" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="I30" s="27"/>
+      <c r="J30" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="K30" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="L30" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="M30" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="N30" s="28"/>
+    </row>
+    <row r="31" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B31" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="55"/>
+      <c r="D31" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="55"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="I31" s="27"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="28"/>
+    </row>
+    <row r="32" spans="2:14" s="24" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B32" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="55"/>
+      <c r="D32" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="54"/>
+      <c r="F32" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I32" s="27"/>
+      <c r="J32" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="K32" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L32" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M32" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="N32" s="28"/>
+    </row>
+    <row r="33" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B33" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="I33" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="K33" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="L33" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M33" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="N33" s="28"/>
+    </row>
+    <row r="34" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B34" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="55"/>
+      <c r="D34" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="55"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="I34" s="55"/>
+      <c r="J34" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="K34" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M34" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="N34" s="28"/>
+    </row>
+    <row r="35" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B35" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="55"/>
+      <c r="D35" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="55"/>
+      <c r="F35" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="I35" s="55"/>
+      <c r="J35" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="K35" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="L35" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="M35" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="N35" s="28"/>
+    </row>
+    <row r="36" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B36" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="55"/>
+      <c r="D36" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I36" s="55"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="28"/>
+    </row>
+    <row r="37" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B37" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="55"/>
+      <c r="D37" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="I37" s="55"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="28"/>
+    </row>
+    <row r="38" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B38" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="55"/>
+      <c r="D38" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="I38" s="55"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="28"/>
+    </row>
+    <row r="39" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B39" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="55"/>
+      <c r="D39" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="I39" s="55"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="28"/>
+    </row>
+    <row r="40" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B40" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="55"/>
+      <c r="D40" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="I40" s="55"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="28"/>
+    </row>
+    <row r="41" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B41" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="55"/>
+      <c r="D41" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="I41" s="55"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="28"/>
+    </row>
+    <row r="42" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B42" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="54"/>
+      <c r="D42" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="I42" s="54"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="28"/>
+    </row>
+    <row r="43" spans="2:14" s="24" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B43" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="I43" s="27"/>
+      <c r="J43" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="K43" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="L43" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M43" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="N43" s="28"/>
+    </row>
+    <row r="44" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B44" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="55"/>
+      <c r="D44" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="I44" s="21"/>
+      <c r="J44" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="K44" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="L44" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M44" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="N44" s="28"/>
+    </row>
+    <row r="45" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B45" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="55"/>
+      <c r="D45" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="I45" s="27"/>
+      <c r="J45" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="K45" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="L45" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M45" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="N45" s="28"/>
+    </row>
+    <row r="46" spans="2:14" s="24" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B46" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="55"/>
+      <c r="D46" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="55"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="I46" s="27"/>
+      <c r="J46" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="K46" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="L46" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M46" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="N46" s="28"/>
+    </row>
+    <row r="47" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B47" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="55"/>
+      <c r="D47" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="55"/>
+      <c r="F47" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="I47" s="27"/>
+      <c r="J47" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="K47" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="L47" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M47" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="N47" s="28"/>
+    </row>
+    <row r="48" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B48" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="55"/>
+      <c r="D48" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="I48" s="27"/>
+      <c r="J48" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="K48" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="L48" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M48" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="N48" s="28"/>
+    </row>
+    <row r="49" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B49" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="54"/>
+      <c r="D49" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="I49" s="27"/>
+      <c r="J49" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="K49" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="L49" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M49" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="N49" s="28"/>
+    </row>
+    <row r="50" spans="2:14" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="29"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="33"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="E52" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="60">
+    <mergeCell ref="C43:C49"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="C33:C42"/>
+    <mergeCell ref="E33:E42"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="I33:I42"/>
+    <mergeCell ref="F35:F42"/>
+    <mergeCell ref="J35:J42"/>
+    <mergeCell ref="K35:K42"/>
+    <mergeCell ref="L35:L42"/>
+    <mergeCell ref="M35:M42"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F22:F29"/>
+    <mergeCell ref="I22:I29"/>
+    <mergeCell ref="J22:J29"/>
+    <mergeCell ref="K22:K29"/>
+    <mergeCell ref="L22:L29"/>
+    <mergeCell ref="M22:M29"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="K11:K16"/>
+    <mergeCell ref="L11:L16"/>
+    <mergeCell ref="M11:M16"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B343E0DC-A58D-4559-9980-B74F798B8315}">
+  <dimension ref="B2:N52"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22:K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="4" width="8.796875" style="17"/>
+    <col min="5" max="5" width="17.8984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.8984375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="33.69921875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" style="17" customWidth="1"/>
+    <col min="10" max="10" width="38" style="41" customWidth="1"/>
+    <col min="11" max="11" width="54.59765625" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" style="17" customWidth="1"/>
+    <col min="13" max="13" width="10" style="17" customWidth="1"/>
+    <col min="14" max="14" width="38" style="17" customWidth="1"/>
+    <col min="15" max="16384" width="8.796875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="57"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="59"/>
+    </row>
+    <row r="5" spans="2:14" s="24" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="K5" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="L5" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="M5" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="N5" s="23"/>
+    </row>
+    <row r="6" spans="2:14" s="24" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="54"/>
+      <c r="F6" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="23"/>
+    </row>
+    <row r="7" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="N7" s="23"/>
+    </row>
+    <row r="8" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="55"/>
+      <c r="D8" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="N8" s="23"/>
+    </row>
+    <row r="9" spans="2:14" s="24" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="L9" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="N9" s="23"/>
+    </row>
+    <row r="10" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B10" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="N10" s="23"/>
+    </row>
+    <row r="11" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B11" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="K11" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="L11" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="M11" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="N11" s="23"/>
+    </row>
+    <row r="12" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B12" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="55"/>
+      <c r="D12" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="I12" s="27"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="28"/>
+    </row>
+    <row r="13" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B13" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="55"/>
+      <c r="D13" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="I13" s="27"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="28"/>
+    </row>
+    <row r="14" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B14" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="I14" s="27"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="28"/>
+    </row>
+    <row r="15" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B15" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="28"/>
+    </row>
+    <row r="16" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B16" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="54"/>
+      <c r="D16" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="54"/>
+      <c r="G16" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="I16" s="27"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="28"/>
+    </row>
+    <row r="17" spans="2:14" s="24" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B17" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="I17" s="27"/>
+      <c r="J17" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="L17" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="N17" s="28"/>
+    </row>
+    <row r="18" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B18" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="55"/>
+      <c r="D18" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="55"/>
+      <c r="F18" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="K18" s="67" t="s">
+        <v>232</v>
+      </c>
+      <c r="L18" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="M18" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="N18" s="28"/>
+    </row>
+    <row r="19" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B19" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="55"/>
+      <c r="D19" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="55"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="64"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="28"/>
+    </row>
+    <row r="20" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B20" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="55"/>
+      <c r="F20" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="64"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="28"/>
+    </row>
+    <row r="21" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B21" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="54"/>
+      <c r="D21" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="65"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="28"/>
+    </row>
+    <row r="22" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B22" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="I22" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="J22" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="L22" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="M22" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="N22" s="28"/>
+    </row>
+    <row r="23" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B23" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="55"/>
+      <c r="D23" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="I23" s="55"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="28"/>
+    </row>
+    <row r="24" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B24" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="55"/>
+      <c r="D24" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="I24" s="55"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="28"/>
+    </row>
+    <row r="25" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B25" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="55"/>
+      <c r="D25" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="I25" s="55"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="28"/>
+    </row>
+    <row r="26" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B26" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="55"/>
+      <c r="D26" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="I26" s="55"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="28"/>
+    </row>
+    <row r="27" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B27" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="55"/>
+      <c r="D27" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="I27" s="55"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="28"/>
+    </row>
+    <row r="28" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B28" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="55"/>
+      <c r="D28" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="I28" s="55"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="28"/>
+    </row>
+    <row r="29" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B29" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="54"/>
+      <c r="D29" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="I29" s="54"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="28"/>
+    </row>
+    <row r="30" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B30" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="I30" s="27"/>
+      <c r="J30" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="K30" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="L30" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="M30" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="N30" s="28"/>
+    </row>
+    <row r="31" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B31" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="55"/>
+      <c r="D31" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="55"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="I31" s="27"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="28"/>
+    </row>
+    <row r="32" spans="2:14" s="24" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B32" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="55"/>
+      <c r="D32" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="54"/>
+      <c r="F32" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I32" s="27"/>
+      <c r="J32" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="K32" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L32" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M32" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="N32" s="28"/>
+    </row>
+    <row r="33" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B33" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="I33" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="K33" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="L33" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M33" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="N33" s="28"/>
+    </row>
+    <row r="34" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B34" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="55"/>
+      <c r="D34" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="55"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="I34" s="55"/>
+      <c r="J34" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="K34" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M34" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="N34" s="28"/>
+    </row>
+    <row r="35" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B35" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="55"/>
+      <c r="D35" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="55"/>
+      <c r="F35" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="I35" s="55"/>
+      <c r="J35" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="K35" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="L35" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="M35" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="N35" s="28"/>
+    </row>
+    <row r="36" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B36" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="55"/>
+      <c r="D36" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I36" s="55"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="28"/>
+    </row>
+    <row r="37" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B37" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="55"/>
+      <c r="D37" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="I37" s="55"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="28"/>
+    </row>
+    <row r="38" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B38" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="55"/>
+      <c r="D38" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="I38" s="55"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="28"/>
+    </row>
+    <row r="39" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B39" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="55"/>
+      <c r="D39" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="I39" s="55"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="28"/>
+    </row>
+    <row r="40" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B40" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="55"/>
+      <c r="D40" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="I40" s="55"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="28"/>
+    </row>
+    <row r="41" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B41" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="55"/>
+      <c r="D41" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="I41" s="55"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="28"/>
+    </row>
+    <row r="42" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B42" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="54"/>
+      <c r="D42" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="I42" s="54"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="28"/>
+    </row>
+    <row r="43" spans="2:14" s="24" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B43" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="I43" s="27"/>
+      <c r="J43" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="K43" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="L43" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M43" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="N43" s="28"/>
+    </row>
+    <row r="44" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B44" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="55"/>
+      <c r="D44" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="I44" s="21"/>
+      <c r="J44" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="K44" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="L44" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M44" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="N44" s="28"/>
+    </row>
+    <row r="45" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B45" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="55"/>
+      <c r="D45" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="I45" s="27"/>
+      <c r="J45" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="K45" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="L45" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M45" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="N45" s="28"/>
+    </row>
+    <row r="46" spans="2:14" s="24" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B46" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="55"/>
+      <c r="D46" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="55"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="I46" s="27"/>
+      <c r="J46" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="K46" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="L46" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M46" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="N46" s="28"/>
+    </row>
+    <row r="47" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B47" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="55"/>
+      <c r="D47" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="55"/>
+      <c r="F47" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="I47" s="27"/>
+      <c r="J47" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="K47" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="L47" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M47" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="N47" s="28"/>
+    </row>
+    <row r="48" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B48" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="55"/>
+      <c r="D48" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="I48" s="27"/>
+      <c r="J48" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="K48" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="L48" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M48" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="N48" s="28"/>
+    </row>
+    <row r="49" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B49" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="54"/>
+      <c r="D49" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="I49" s="27"/>
+      <c r="J49" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="K49" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="L49" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M49" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="N49" s="28"/>
+    </row>
+    <row r="50" spans="2:14" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="29"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="33"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="E52" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="60">
+    <mergeCell ref="C43:C49"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="C33:C42"/>
+    <mergeCell ref="E33:E42"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="I33:I42"/>
+    <mergeCell ref="F35:F42"/>
+    <mergeCell ref="J35:J42"/>
+    <mergeCell ref="K35:K42"/>
+    <mergeCell ref="L35:L42"/>
+    <mergeCell ref="M35:M42"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F22:F29"/>
+    <mergeCell ref="I22:I29"/>
+    <mergeCell ref="J22:J29"/>
+    <mergeCell ref="K22:K29"/>
+    <mergeCell ref="L22:L29"/>
+    <mergeCell ref="M22:M29"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="K11:K16"/>
+    <mergeCell ref="L11:L16"/>
+    <mergeCell ref="M11:M16"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A5B5EF-629A-4D37-8A56-9181CAAE5EA2}">
+  <dimension ref="B2:N52"/>
+  <sheetViews>
+    <sheetView topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="4" width="8.796875" style="17"/>
+    <col min="5" max="5" width="17.8984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.8984375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="33.69921875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" style="17" customWidth="1"/>
+    <col min="10" max="10" width="38" style="41" customWidth="1"/>
+    <col min="11" max="11" width="54.59765625" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" style="17" customWidth="1"/>
+    <col min="13" max="13" width="10" style="17" customWidth="1"/>
+    <col min="14" max="14" width="38" style="17" customWidth="1"/>
+    <col min="15" max="16384" width="8.796875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="57"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="59"/>
+    </row>
+    <row r="5" spans="2:14" s="24" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="K5" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="L5" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="M5" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="N5" s="23"/>
+    </row>
+    <row r="6" spans="2:14" s="24" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="54"/>
+      <c r="F6" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="23"/>
+    </row>
+    <row r="7" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="N7" s="23"/>
+    </row>
+    <row r="8" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="55"/>
+      <c r="D8" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="N8" s="23"/>
+    </row>
+    <row r="9" spans="2:14" s="24" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="L9" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="N9" s="23"/>
+    </row>
+    <row r="10" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B10" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="N10" s="23"/>
+    </row>
+    <row r="11" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B11" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="K11" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="L11" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="M11" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="N11" s="23"/>
+    </row>
+    <row r="12" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B12" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="55"/>
+      <c r="D12" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="I12" s="27"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="28"/>
+    </row>
+    <row r="13" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B13" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="55"/>
+      <c r="D13" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="I13" s="27"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="28"/>
+    </row>
+    <row r="14" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B14" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="I14" s="27"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="28"/>
+    </row>
+    <row r="15" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B15" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="28"/>
+    </row>
+    <row r="16" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B16" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="54"/>
+      <c r="D16" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="54"/>
+      <c r="G16" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="I16" s="27"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="28"/>
+    </row>
+    <row r="17" spans="2:14" s="24" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B17" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="I17" s="27"/>
+      <c r="J17" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="L17" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="N17" s="28"/>
+    </row>
+    <row r="18" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B18" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="55"/>
+      <c r="D18" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="55"/>
+      <c r="F18" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="K18" s="67" t="s">
+        <v>232</v>
+      </c>
+      <c r="L18" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="M18" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="N18" s="28"/>
+    </row>
+    <row r="19" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B19" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="55"/>
+      <c r="D19" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="55"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="64"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="28"/>
+    </row>
+    <row r="20" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B20" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="55"/>
+      <c r="F20" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="64"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="28"/>
+    </row>
+    <row r="21" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B21" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="54"/>
+      <c r="D21" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="65"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="28"/>
+    </row>
+    <row r="22" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B22" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="I22" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="J22" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="L22" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="M22" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="N22" s="28"/>
+    </row>
+    <row r="23" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B23" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="55"/>
+      <c r="D23" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="I23" s="55"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="28"/>
+    </row>
+    <row r="24" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B24" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="55"/>
+      <c r="D24" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="I24" s="55"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="28"/>
+    </row>
+    <row r="25" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B25" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="55"/>
+      <c r="D25" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="I25" s="55"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="28"/>
+    </row>
+    <row r="26" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B26" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="55"/>
+      <c r="D26" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="I26" s="55"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="28"/>
+    </row>
+    <row r="27" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B27" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="55"/>
+      <c r="D27" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="I27" s="55"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="28"/>
+    </row>
+    <row r="28" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B28" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="55"/>
+      <c r="D28" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="I28" s="55"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="28"/>
+    </row>
+    <row r="29" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B29" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="54"/>
+      <c r="D29" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="I29" s="54"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="28"/>
+    </row>
+    <row r="30" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B30" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="I30" s="27"/>
+      <c r="J30" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="K30" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="L30" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="M30" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="N30" s="28"/>
+    </row>
+    <row r="31" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B31" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="55"/>
+      <c r="D31" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="55"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="I31" s="27"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="28"/>
+    </row>
+    <row r="32" spans="2:14" s="24" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B32" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="55"/>
+      <c r="D32" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="54"/>
+      <c r="F32" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I32" s="27"/>
+      <c r="J32" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="K32" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L32" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M32" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="N32" s="28"/>
+    </row>
+    <row r="33" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B33" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="I33" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="K33" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="L33" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M33" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="N33" s="28"/>
+    </row>
+    <row r="34" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B34" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="55"/>
+      <c r="D34" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="55"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="I34" s="55"/>
+      <c r="J34" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="K34" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M34" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="N34" s="28"/>
+    </row>
+    <row r="35" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B35" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="55"/>
+      <c r="D35" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="55"/>
+      <c r="F35" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="I35" s="55"/>
+      <c r="J35" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="K35" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="L35" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="M35" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="N35" s="28"/>
+    </row>
+    <row r="36" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B36" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="55"/>
+      <c r="D36" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I36" s="55"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="28"/>
+    </row>
+    <row r="37" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B37" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="55"/>
+      <c r="D37" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="I37" s="55"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="28"/>
+    </row>
+    <row r="38" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B38" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="55"/>
+      <c r="D38" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="I38" s="55"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="28"/>
+    </row>
+    <row r="39" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B39" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="55"/>
+      <c r="D39" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="I39" s="55"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="28"/>
+    </row>
+    <row r="40" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B40" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="55"/>
+      <c r="D40" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="I40" s="55"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="28"/>
+    </row>
+    <row r="41" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B41" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="55"/>
+      <c r="D41" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="I41" s="55"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="28"/>
+    </row>
+    <row r="42" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B42" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="54"/>
+      <c r="D42" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="I42" s="54"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="28"/>
+    </row>
+    <row r="43" spans="2:14" s="24" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B43" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="I43" s="27"/>
+      <c r="J43" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="K43" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="L43" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M43" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="N43" s="28"/>
+    </row>
+    <row r="44" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B44" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="55"/>
+      <c r="D44" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="I44" s="21"/>
+      <c r="J44" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="K44" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="L44" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M44" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="N44" s="28"/>
+    </row>
+    <row r="45" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B45" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="55"/>
+      <c r="D45" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="I45" s="27"/>
+      <c r="J45" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="K45" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="L45" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M45" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="N45" s="28"/>
+    </row>
+    <row r="46" spans="2:14" s="24" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B46" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="55"/>
+      <c r="D46" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="55"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="I46" s="27"/>
+      <c r="J46" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="K46" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="L46" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M46" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="N46" s="28"/>
+    </row>
+    <row r="47" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B47" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="55"/>
+      <c r="D47" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="55"/>
+      <c r="F47" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="I47" s="27"/>
+      <c r="J47" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="K47" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="L47" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M47" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="N47" s="28"/>
+    </row>
+    <row r="48" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B48" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="55"/>
+      <c r="D48" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="I48" s="27"/>
+      <c r="J48" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="K48" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="L48" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M48" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="N48" s="28"/>
+    </row>
+    <row r="49" spans="2:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B49" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="54"/>
+      <c r="D49" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="I49" s="27"/>
+      <c r="J49" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="K49" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="L49" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M49" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="N49" s="28"/>
+    </row>
+    <row r="50" spans="2:14" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="29"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="33"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="E52" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="60">
+    <mergeCell ref="C43:C49"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="C33:C42"/>
+    <mergeCell ref="E33:E42"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="I33:I42"/>
+    <mergeCell ref="F35:F42"/>
+    <mergeCell ref="J35:J42"/>
+    <mergeCell ref="K35:K42"/>
+    <mergeCell ref="L35:L42"/>
+    <mergeCell ref="M35:M42"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F22:F29"/>
+    <mergeCell ref="I22:I29"/>
+    <mergeCell ref="J22:J29"/>
+    <mergeCell ref="K22:K29"/>
+    <mergeCell ref="L22:L29"/>
+    <mergeCell ref="M22:M29"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="K11:K16"/>
+    <mergeCell ref="L11:L16"/>
+    <mergeCell ref="M11:M16"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>